--- a/Top 10 Queens Neighborhoods Confirmed COVID.xlsx
+++ b/Top 10 Queens Neighborhoods Confirmed COVID.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\opnyc\Desktop\NYU MSPP\Policy and Data Studio\COVID-Analysis-Queens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6001836F-6CB4-440C-9DAB-A6C96D221FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770113EB-9D05-44C3-901A-5E40BCC03495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1910" yWindow="1910" windowWidth="17300" windowHeight="8900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Top 10 Queens Neighborhoods Con" sheetId="1" r:id="rId1"/>
@@ -795,7 +795,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="75000"/>
@@ -1081,12 +1081,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Confirmed</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> COVID-19 Case Count</a:t>
+                  <a:t>COVID-19 Case Count</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2788,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{760DFCA2-9C02-4913-85E3-917288BC8936}">
   <dimension ref="A1:P11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
